--- a/medicine/Enfance/Thomas_Brezina/Thomas_Brezina.xlsx
+++ b/medicine/Enfance/Thomas_Brezina/Thomas_Brezina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Brezina, né le 30 janvier 1963 à Vienne[1], est un auteur et présentateur de télévision autrichien. Il est principalement connu pour sa série Les K (Knickerbocker Gang) et ses histoires concernant le vélo Tom Turbo. Il a publié plus de 550 livres et son œuvre a été traduite dans 35 langues[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Brezina, né le 30 janvier 1963 à Vienne, est un auteur et présentateur de télévision autrichien. Il est principalement connu pour sa série Les K (Knickerbocker Gang) et ses histoires concernant le vélo Tom Turbo. Il a publié plus de 550 livres et son œuvre a été traduite dans 35 langues.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Déjà auteur pendant sa jeunesse, Thoma Brezina a reçu le Grand Prix de la Jeunesse Autrichienne pour ses scénarios du spectacle de marionnettes télévisé Tim, Tom et Dominik. Par la suite, il a travaillé comme marionnettiste à Arminius Rothstein, mieux connu sous le nom de « Clown Habaquq », en Autriche, et a joué entre autres le magicien Tintifax.
 Thomas Brezina a écrit des histoires et des pièces radiophoniques et a travaillé comme assistant réalisateur pour des spectacles tels que Am dam des, pour la radio publique nationale autrichienne (ORF). Par la suite, il a été embauché à l'ORF en tant que rédacteur, directeur et, finalement, présentateur des programmes pour enfants.
-Sa percée en tant qu'écrivain s'est produite en 1990 avec la série Les K. Trois ans plus tard, il a lancé la série littéraire Tom Turbo – sur la « bicyclette la plus intelligente du monde » – qui a ensuite été adaptée pour la télévision[3]. Depuis 2008, il est responsable du programme pour enfants okidoki, diffusé sur ORF eins[4].
-Thomas Brezina a reçu de nombreuses récompenses pour son travail, y compris l'Ordre du Mérite[5] et la plus importante récompense de la télévision autrichienne : le prix Romy, pour le programme d'éducation Forscherexpress.
-Il vit à Vienne et à Londres[6]. En privé, il s'engage dans les organismes de bienfaisance pour les enfants défavorisés et est devenu un Ambassadeur itinérant de l'UNICEF pour l'Autriche en 1996. Pour son 50e anniversaire, il a parrainé un enfant pour Light for the World[7] et il est actuellement engagé en tant que témoin pour de l'ONG Autrichienne Volkshilfe[8].
+Sa percée en tant qu'écrivain s'est produite en 1990 avec la série Les K. Trois ans plus tard, il a lancé la série littéraire Tom Turbo – sur la « bicyclette la plus intelligente du monde » – qui a ensuite été adaptée pour la télévision. Depuis 2008, il est responsable du programme pour enfants okidoki, diffusé sur ORF eins.
+Thomas Brezina a reçu de nombreuses récompenses pour son travail, y compris l'Ordre du Mérite et la plus importante récompense de la télévision autrichienne : le prix Romy, pour le programme d'éducation Forscherexpress.
+Il vit à Vienne et à Londres. En privé, il s'engage dans les organismes de bienfaisance pour les enfants défavorisés et est devenu un Ambassadeur itinérant de l'UNICEF pour l'Autriche en 1996. Pour son 50e anniversaire, il a parrainé un enfant pour Light for the World et il est actuellement engagé en tant que témoin pour de l'ONG Autrichienne Volkshilfe.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Ouvrages traduits en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Série Les K
 La jonque aux dragons, Rageot
